--- a/biology/Botanique/Strelitziaceae/Strelitziaceae.xlsx
+++ b/biology/Botanique/Strelitziaceae/Strelitziaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Strelitziaceae (Strelitziacées) comprend 7 espèces appartenant à 3 genres (voir au-dessous). 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Strelitzia donné par Joseph Banks pour honorer la mémoire de la reine Charlotte d'Angleterre (1744-1818), née duchesse Charlotte de Mecklembourg-Strelitz (1744–1818). Botaniste amatrice, elle contribua avec William Aiton et Joseph Banks à développer le jardin de Kew futurs Jardins botaniques royaux de Kew (à l'ouest de Londres).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont généralement des plantes herbacées rhizomateuses des régions tropicales et subtropicales comme l'oiseau de paradis (Strelitzia reginae) originaire d'Afrique du Sud ou comme l'arbre du voyageur (Ravenala madagascariensis) endémique et emblématique de Madagascar.
 Ces plantes ont des fleurs hermaphrodites, à pollinisation généralement ornithophile (par les oiseaux) ou chiroptérophiles (par les chauves-souris).
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[1], Angiosperm Phylogeny Website                        (19 mai 2010)[2], NCBI  (22 avr. 2010)[3] et DELTA Angio           (22 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010), NCBI  (22 avr. 2010) et DELTA Angio           (22 avr. 2010) :
 genre Phenakospermum  Endl. (1833)
 genre Ravenala  Scop. (1777)
 genre Strelitzia  Aiton (1789)</t>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 genre Phenakospermum  Endl. (1833)
 Phenakospermum guyannense  (A.Rich.) Endl. ex Miq. (1845)
 genre Ravenala  Scop. (1777)
@@ -620,7 +640,7 @@
 Strelitzia juncea  (Ker Gawl.) Link (1821)
 Strelitzia nicolai  Regel &amp; K.Koch (1858)
 Strelitzia reginae  Banks ex Aiton (1789)
-Selon NCBI  (22 avr. 2010)[3] :
+Selon NCBI  (22 avr. 2010) :
 genre Phenakospermum
 Phenakospermum guyannense
 genre Ravenala
